--- a/medicine/Enfance/Stewart_Moskowitz/Stewart_Moskowitz.xlsx
+++ b/medicine/Enfance/Stewart_Moskowitz/Stewart_Moskowitz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stewart Moskowitz (né le 6 juillet 1941 et mort le 23 mai 2017) est un peintre, illustrateur et auteur de livres pour enfants américain. Il s'est notamment fait reconnaître par ses peintures dans le style pop art aux États-Unis durant les années 1970 et le début des années 1980, vendues sous la forme d'affiches et cartes de vœux.
 Sa première série à succès étaient ses illustrations représentant American Rabbit, un personnage de lapin anthropomorphe aux couleurs du drapeau des États-Unis. D'autres personnages à succès comprenaient The White Brothers (une bande de lapins blancs en patins à roulettes) et Chocolate Mousse (un élan recouvert de mousse au chocolat), et plusieurs autres qui apparaissaient dans des livres pour enfants que Moskowitz publia en 1982.
